--- a/sandbox/IEF quant.xlsx
+++ b/sandbox/IEF quant.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15380" yWindow="2880" windowWidth="32520" windowHeight="19700" tabRatio="500"/>
+    <workbookView xWindow="15375" yWindow="2880" windowWidth="32520" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="sum">Sheet1!$C$36</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -256,6 +256,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -280,10 +285,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0805702099737533"/>
-          <c:y val="0.0833333333333333"/>
-          <c:w val="0.7130656167979"/>
-          <c:h val="0.822469378827647"/>
+          <c:x val="8.0570209973753304E-2"/>
+          <c:y val="8.3333333333333301E-2"/>
+          <c:w val="0.71306561679790004"/>
+          <c:h val="0.82246937882764704"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -305,25 +310,25 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>0.0378243748571385</c:v>
+                    <c:v>3.7824374857138521E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0656969304204287</c:v>
+                    <c:v>6.5696930420428734E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0400832778932396</c:v>
+                    <c:v>4.0083277893239615E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0259077047741915</c:v>
+                    <c:v>2.5907704774191555E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0238408612819811</c:v>
+                    <c:v>2.3840861281981058E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.043568298872766</c:v>
+                    <c:v>4.3568298872766038E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.105544319284997</c:v>
+                    <c:v>0.10554431928499672</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -333,7 +338,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -348,10 +353,10 @@
                   <c:v>0.12245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1894</c:v>
+                  <c:v>0.18940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.154375</c:v>
+                  <c:v>0.15437499999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.123475</c:v>
@@ -360,7 +365,7 @@
                   <c:v>0.147425</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.08895</c:v>
+                  <c:v>8.8950000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.20895</c:v>
@@ -378,11 +383,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2099186216"/>
-        <c:axId val="-2098760968"/>
+        <c:axId val="41364096"/>
+        <c:axId val="41365888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2099186216"/>
+        <c:axId val="41364096"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -391,7 +396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098760968"/>
+        <c:crossAx val="41365888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -399,7 +404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098760968"/>
+        <c:axId val="41365888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -419,7 +424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099186216"/>
+        <c:crossAx val="41364096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -435,7 +440,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
   </c:printSettings>
 </c:chartSpace>
@@ -462,10 +467,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.067432852143482"/>
-          <c:y val="0.0277777777777778"/>
-          <c:w val="0.726202974628171"/>
-          <c:h val="0.822469378827647"/>
+          <c:x val="6.7432852143482006E-2"/>
+          <c:y val="2.7777777777777801E-2"/>
+          <c:w val="0.72620297462817096"/>
+          <c:h val="0.82246937882764704"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -483,16 +488,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.01477</c:v>
+                  <c:v>1.4770000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.10639</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3033</c:v>
+                  <c:v>0.30330000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57555</c:v>
+                  <c:v>0.57555000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -507,11 +512,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2097600568"/>
-        <c:axId val="-2097779352"/>
+        <c:axId val="41373056"/>
+        <c:axId val="41374848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2097600568"/>
+        <c:axId val="41373056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,7 +525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097779352"/>
+        <c:crossAx val="41374848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -528,7 +533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097779352"/>
+        <c:axId val="41374848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -539,7 +544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097600568"/>
+        <c:crossAx val="41373056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -555,7 +560,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -597,16 +602,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.0938</c:v>
+                    <c:v>9.3799999999999994E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0371</c:v>
+                    <c:v>3.7099999999999966E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.1428</c:v>
+                    <c:v>0.14279999999999998</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0118</c:v>
+                    <c:v>1.1799999999999998E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -616,7 +621,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -628,16 +633,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.3633</c:v>
+                  <c:v>0.36330000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43675</c:v>
+                  <c:v>0.43674999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1436</c:v>
+                  <c:v>0.14360000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0563</c:v>
+                  <c:v>5.6300000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -652,11 +657,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2093571704"/>
-        <c:axId val="-2093568616"/>
+        <c:axId val="41464960"/>
+        <c:axId val="41466496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2093571704"/>
+        <c:axId val="41464960"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -665,7 +670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093568616"/>
+        <c:crossAx val="41466496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -673,7 +678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2093568616"/>
+        <c:axId val="41466496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -691,7 +696,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093571704"/>
+        <c:crossAx val="41464960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -702,7 +707,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -743,10 +748,10 @@
                   <c:v>0.29385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36565</c:v>
+                  <c:v>0.36565000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21885</c:v>
+                  <c:v>0.21884999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.1216</c:v>
@@ -764,11 +769,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2093160584"/>
-        <c:axId val="-2093157496"/>
+        <c:axId val="58658176"/>
+        <c:axId val="68764800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2093160584"/>
+        <c:axId val="58658176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,7 +782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093157496"/>
+        <c:crossAx val="68764800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -785,7 +790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2093157496"/>
+        <c:axId val="68764800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,7 +801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093160584"/>
+        <c:crossAx val="58658176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -812,7 +817,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -854,16 +859,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.0548496581575491</c:v>
+                    <c:v>5.4849658157549157E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.109050424116553</c:v>
+                    <c:v>0.10905042411655262</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0609240757008262</c:v>
+                    <c:v>6.0924075700826218E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.190839513728158</c:v>
+                    <c:v>0.19083951372815819</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -873,7 +878,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -885,16 +890,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0583</c:v>
+                  <c:v>5.8300000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1734</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28276</c:v>
+                  <c:v>0.28276000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4855</c:v>
+                  <c:v>0.48550000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,11 +914,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2097584904"/>
-        <c:axId val="-2097278632"/>
+        <c:axId val="68785664"/>
+        <c:axId val="68787200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2097584904"/>
+        <c:axId val="68785664"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -922,7 +927,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097278632"/>
+        <c:crossAx val="68787200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -930,7 +935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097278632"/>
+        <c:axId val="68787200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097584904"/>
+        <c:crossAx val="68785664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -958,7 +963,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1443,13 +1448,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q32" workbookViewId="0">
-      <selection activeCell="AL63" sqref="AL63"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA41" sqref="AA41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>806.27</v>
       </c>
@@ -1575,7 +1580,7 @@
         <v>5.4849658157549157E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>899.09</v>
       </c>
@@ -1651,7 +1656,7 @@
         <v>0.10905042411655262</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>895.06</v>
       </c>
@@ -1727,7 +1732,7 @@
         <v>6.0924075700826218E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>897</v>
       </c>
@@ -1803,7 +1808,7 @@
         <v>0.19083951372815819</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>897</v>
       </c>
@@ -1840,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>897</v>
       </c>
@@ -1862,7 +1867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1262</v>
       </c>
@@ -1908,7 +1913,7 @@
         <v>1.4770000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -1948,7 +1953,7 @@
         <v>0.10639</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M10">
         <v>1570</v>
       </c>
@@ -1977,7 +1982,7 @@
         <v>0.30330000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1033</v>
       </c>
@@ -2040,7 +2045,7 @@
         <v>0.57555000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1030</v>
       </c>
@@ -2087,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1030</v>
       </c>
@@ -2123,7 +2128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1030</v>
       </c>
@@ -2176,7 +2181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1527</v>
       </c>
@@ -2229,7 +2234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>897</v>
       </c>
@@ -2282,7 +2287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1208</v>
       </c>
@@ -2335,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
@@ -2366,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>600</v>
       </c>
@@ -2419,7 +2424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>600</v>
       </c>
@@ -2472,7 +2477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>600</v>
       </c>
@@ -2525,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>600</v>
       </c>
@@ -2578,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>945</v>
       </c>
@@ -2625,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>945</v>
       </c>
@@ -2661,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1788</v>
       </c>
@@ -2714,7 +2719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>7</v>
       </c>
@@ -2751,7 +2756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M28">
         <v>1697</v>
       </c>
@@ -2770,7 +2775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>600</v>
       </c>
@@ -2823,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>600</v>
       </c>
@@ -2870,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>600</v>
       </c>
@@ -2906,7 +2911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>512</v>
       </c>
@@ -2942,7 +2947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>512</v>
       </c>
@@ -2995,7 +3000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1409</v>
       </c>
@@ -3048,7 +3053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1400</v>
       </c>
@@ -3101,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
@@ -3138,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N37" t="s">
         <v>19</v>
       </c>
@@ -3147,7 +3152,7 @@
         <v>3429</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -3173,7 +3178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
@@ -3194,11 +3199,11 @@
         <v>0.12245</v>
       </c>
       <c r="G39">
-        <f>STDEV(B39:E39)</f>
+        <f t="shared" ref="G39:G45" si="7">STDEV(B39:E39)</f>
         <v>3.7824374857138521E-2</v>
       </c>
       <c r="H39">
-        <f>G39/4</f>
+        <f t="shared" ref="H39:H45" si="8">G39/4</f>
         <v>9.4560937142846302E-3</v>
       </c>
       <c r="M39">
@@ -3233,7 +3238,7 @@
         <v>9.3799999999999994E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -3254,11 +3259,11 @@
         <v>0.18940000000000001</v>
       </c>
       <c r="G40">
-        <f>STDEV(B40:E40)</f>
+        <f t="shared" si="7"/>
         <v>6.5696930420428734E-2</v>
       </c>
       <c r="H40">
-        <f>G40/4</f>
+        <f t="shared" si="8"/>
         <v>1.6424232605107184E-2</v>
       </c>
       <c r="M40">
@@ -3293,7 +3298,7 @@
         <v>3.7099999999999966E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3314,11 +3319,11 @@
         <v>0.15437499999999998</v>
       </c>
       <c r="G41">
-        <f>STDEV(B41:E41)</f>
+        <f t="shared" si="7"/>
         <v>4.0083277893239615E-2</v>
       </c>
       <c r="H41">
-        <f>G41/4</f>
+        <f t="shared" si="8"/>
         <v>1.0020819473309904E-2</v>
       </c>
       <c r="M41">
@@ -3353,7 +3358,7 @@
         <v>0.14279999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -3374,11 +3379,11 @@
         <v>0.123475</v>
       </c>
       <c r="G42">
-        <f>STDEV(B42:E42)</f>
+        <f t="shared" si="7"/>
         <v>2.5907704774191555E-2</v>
       </c>
       <c r="H42">
-        <f>G42/4</f>
+        <f t="shared" si="8"/>
         <v>6.4769261935478887E-3</v>
       </c>
       <c r="M42">
@@ -3413,7 +3418,7 @@
         <v>1.1799999999999998E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3434,11 +3439,11 @@
         <v>0.147425</v>
       </c>
       <c r="G43">
-        <f>STDEV(B43:E43)</f>
+        <f t="shared" si="7"/>
         <v>2.3840861281981058E-2</v>
       </c>
       <c r="H43">
-        <f>G43/4</f>
+        <f t="shared" si="8"/>
         <v>5.9602153204952645E-3</v>
       </c>
       <c r="N43" t="s">
@@ -3453,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3474,15 +3479,15 @@
         <v>8.8950000000000001E-2</v>
       </c>
       <c r="G44">
-        <f>STDEV(B44:E44)</f>
+        <f t="shared" si="7"/>
         <v>4.3568298872766038E-2</v>
       </c>
       <c r="H44">
-        <f>G44/4</f>
+        <f t="shared" si="8"/>
         <v>1.089207471819151E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -3503,11 +3508,11 @@
         <v>0.20895</v>
       </c>
       <c r="G45">
-        <f>STDEV(B45:E45)</f>
+        <f t="shared" si="7"/>
         <v>0.10554431928499672</v>
       </c>
       <c r="H45">
-        <f>G45/4</f>
+        <f t="shared" si="8"/>
         <v>2.638607982124918E-2</v>
       </c>
       <c r="M45">
@@ -3538,7 +3543,7 @@
         <v>0.29385</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M46">
         <v>2233</v>
       </c>
@@ -3567,7 +3572,7 @@
         <v>0.36565000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -3605,7 +3610,7 @@
         <v>0.21884999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
@@ -3619,11 +3624,11 @@
         <v>0.15620000000000001</v>
       </c>
       <c r="E48">
-        <f>AVERAGE(B48:D48)</f>
+        <f t="shared" ref="E48:E54" si="9">AVERAGE(B48:D48)</f>
         <v>0.19193333333333332</v>
       </c>
       <c r="F48">
-        <f>STDEV(B48:D48)</f>
+        <f t="shared" ref="F48:F54" si="10">STDEV(B48:D48)</f>
         <v>3.297898320648078E-2</v>
       </c>
       <c r="H48" t="s">
@@ -3657,7 +3662,7 @@
         <v>0.1216</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -3671,11 +3676,11 @@
         <v>0.14940000000000001</v>
       </c>
       <c r="E49">
-        <f>AVERAGE(B49:D49)</f>
+        <f t="shared" si="9"/>
         <v>0.20109999999999997</v>
       </c>
       <c r="F49">
-        <f>STDEV(B49:D49)</f>
+        <f t="shared" si="10"/>
         <v>5.3101506569964846E-2</v>
       </c>
       <c r="N49" t="s">
@@ -3690,7 +3695,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -3704,15 +3709,15 @@
         <v>0.1046</v>
       </c>
       <c r="E50">
-        <f>AVERAGE(B50:D50)</f>
+        <f t="shared" si="9"/>
         <v>0.14580000000000001</v>
       </c>
       <c r="F50">
-        <f>STDEV(B50:D50)</f>
+        <f t="shared" si="10"/>
         <v>3.568374980295657E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -3726,11 +3731,11 @@
         <v>9.0499999999999997E-2</v>
       </c>
       <c r="E51">
-        <f>AVERAGE(B51:D51)</f>
+        <f t="shared" si="9"/>
         <v>0.13246666666666665</v>
       </c>
       <c r="F51">
-        <f>STDEV(B51:D51)</f>
+        <f t="shared" si="10"/>
         <v>4.150787073957582E-2</v>
       </c>
       <c r="M51">
@@ -3751,7 +3756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -3765,11 +3770,11 @@
         <v>8.7099999999999997E-2</v>
       </c>
       <c r="E52">
-        <f>AVERAGE(B52:D52)</f>
+        <f t="shared" si="9"/>
         <v>0.11086666666666667</v>
       </c>
       <c r="F52">
-        <f>STDEV(B52:D52)</f>
+        <f t="shared" si="10"/>
         <v>2.0792867366799965E-2</v>
       </c>
       <c r="M52">
@@ -3790,7 +3795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3804,11 +3809,11 @@
         <v>0.1244</v>
       </c>
       <c r="E53">
-        <f>AVERAGE(B53:D53)</f>
+        <f t="shared" si="9"/>
         <v>9.3499999999999986E-2</v>
       </c>
       <c r="F53">
-        <f>STDEV(B53:D53)</f>
+        <f t="shared" si="10"/>
         <v>4.7669801761702373E-2</v>
       </c>
       <c r="M53">
@@ -3829,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -3843,11 +3848,11 @@
         <v>0.28770000000000001</v>
       </c>
       <c r="E54">
-        <f>AVERAGE(B54:D54)</f>
+        <f t="shared" si="9"/>
         <v>0.12420000000000002</v>
       </c>
       <c r="F54">
-        <f>STDEV(B54:D54)</f>
+        <f t="shared" si="10"/>
         <v>0.14344298518923818</v>
       </c>
       <c r="M54">
@@ -3868,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N55" t="s">
         <v>31</v>
       </c>
@@ -3881,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M57">
         <v>2414</v>
       </c>
@@ -3900,7 +3905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M58">
         <v>2414</v>
       </c>
@@ -3919,7 +3924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M59">
         <v>2414</v>
       </c>
@@ -3938,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M60">
         <v>2152</v>
       </c>
@@ -3957,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N61" t="s">
         <v>33</v>
       </c>
